--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ccl5-Ackr2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ccl5-Ackr2.xlsx
@@ -525,16 +525,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.74394591302</v>
+        <v>1.770179333333333</v>
       </c>
       <c r="H2">
-        <v>1.74394591302</v>
+        <v>5.310538</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.3177879147171</v>
+        <v>12.35607266666667</v>
       </c>
       <c r="N2">
-        <v>12.3177879147171</v>
+        <v>37.068218</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>21.48155589131803</v>
+        <v>21.87246447569822</v>
       </c>
       <c r="R2">
-        <v>21.48155589131803</v>
+        <v>196.852180281284</v>
       </c>
       <c r="S2">
         <v>1</v>
